--- a/Code/Results/Cases/Case_0_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8895974143076422</v>
+        <v>1.009632597429711</v>
       </c>
       <c r="D2">
-        <v>0.9065611859355751</v>
+        <v>1.01221784508477</v>
       </c>
       <c r="E2">
-        <v>0.9114327558537583</v>
+        <v>1.012037756324119</v>
       </c>
       <c r="F2">
-        <v>0.7895573988058193</v>
+        <v>1.012993391380036</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.011520885343622</v>
+        <v>1.022886706003748</v>
       </c>
       <c r="J2">
-        <v>0.9156687832966374</v>
+        <v>1.014891502240957</v>
       </c>
       <c r="K2">
-        <v>0.9194964201293052</v>
+        <v>1.015082666885817</v>
       </c>
       <c r="L2">
-        <v>0.9242813475147235</v>
+        <v>1.014903120519523</v>
       </c>
       <c r="M2">
-        <v>0.8050098222511354</v>
+        <v>1.015855879778966</v>
       </c>
       <c r="N2">
-        <v>0.9762803419112026</v>
+        <v>1.009082513329069</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9124024182128184</v>
+        <v>1.011754289497215</v>
       </c>
       <c r="D3">
-        <v>0.9268401862961126</v>
+        <v>1.014122975376818</v>
       </c>
       <c r="E3">
-        <v>0.9306177562453798</v>
+        <v>1.013862720549221</v>
       </c>
       <c r="F3">
-        <v>0.8428372680465008</v>
+        <v>1.016170763194075</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.021191480150545</v>
+        <v>1.02321240895198</v>
       </c>
       <c r="J3">
-        <v>0.9356036513550523</v>
+        <v>1.016639393899762</v>
       </c>
       <c r="K3">
-        <v>0.9385034421181654</v>
+        <v>1.016789190687002</v>
       </c>
       <c r="L3">
-        <v>0.9422227503706035</v>
+        <v>1.016529661135266</v>
       </c>
       <c r="M3">
-        <v>0.8559734445811082</v>
+        <v>1.018831285797483</v>
       </c>
       <c r="N3">
-        <v>0.9828615648559142</v>
+        <v>1.00965935640418</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9241547315046342</v>
+        <v>1.013109463599595</v>
       </c>
       <c r="D4">
-        <v>0.9372608298325363</v>
+        <v>1.015339716699707</v>
       </c>
       <c r="E4">
-        <v>0.9404963683820711</v>
+        <v>1.015028681094754</v>
       </c>
       <c r="F4">
-        <v>0.8682975316684628</v>
+        <v>1.018169970584031</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02582135151431</v>
+        <v>1.023409264783684</v>
       </c>
       <c r="J4">
-        <v>0.9457198792073374</v>
+        <v>1.017752782565885</v>
       </c>
       <c r="K4">
-        <v>0.9481804768430134</v>
+        <v>1.017877077018535</v>
       </c>
       <c r="L4">
-        <v>0.9513702805191443</v>
+        <v>1.017566863211157</v>
       </c>
       <c r="M4">
-        <v>0.880296752848186</v>
+        <v>1.020699877916072</v>
       </c>
       <c r="N4">
-        <v>0.9862038164440501</v>
+        <v>1.010026734664452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9286663841095498</v>
+        <v>1.013675036165484</v>
       </c>
       <c r="D5">
-        <v>0.9412573745214237</v>
+        <v>1.015847488571206</v>
       </c>
       <c r="E5">
-        <v>0.9442884429239002</v>
+        <v>1.01551536106557</v>
       </c>
       <c r="F5">
-        <v>0.8777607451886521</v>
+        <v>1.018997101733472</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027537611398804</v>
+        <v>1.023488730699065</v>
       </c>
       <c r="J5">
-        <v>0.9495781798216567</v>
+        <v>1.018216721212888</v>
       </c>
       <c r="K5">
-        <v>0.951876621478657</v>
+        <v>1.018330592914295</v>
       </c>
       <c r="L5">
-        <v>0.9548663731678781</v>
+        <v>1.017999322807996</v>
       </c>
       <c r="M5">
-        <v>0.8893297654193001</v>
+        <v>1.021472105200651</v>
       </c>
       <c r="N5">
-        <v>0.9874788769950449</v>
+        <v>1.010179802130534</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9294031546625139</v>
+        <v>1.013769758041059</v>
       </c>
       <c r="D6">
-        <v>0.9419098483274934</v>
+        <v>1.015932528425117</v>
       </c>
       <c r="E6">
-        <v>0.9449077114851283</v>
+        <v>1.015596874385632</v>
       </c>
       <c r="F6">
-        <v>0.8792905825228814</v>
+        <v>1.019135205769795</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027814675146274</v>
+        <v>1.023501881262126</v>
       </c>
       <c r="J6">
-        <v>0.9502069711711149</v>
+        <v>1.01829437880677</v>
       </c>
       <c r="K6">
-        <v>0.9524792635168896</v>
+        <v>1.018406517856745</v>
       </c>
       <c r="L6">
-        <v>0.9554365107391146</v>
+        <v>1.018071726909556</v>
       </c>
       <c r="M6">
-        <v>0.8907896017082133</v>
+        <v>1.021600990750387</v>
       </c>
       <c r="N6">
-        <v>0.9876866900645443</v>
+        <v>1.010205422811736</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9242164880115903</v>
+        <v>1.013117036962089</v>
       </c>
       <c r="D7">
-        <v>0.9373155485993404</v>
+        <v>1.015346516181553</v>
       </c>
       <c r="E7">
-        <v>0.9405482750388259</v>
+        <v>1.015035197744933</v>
       </c>
       <c r="F7">
-        <v>0.86842818733711</v>
+        <v>1.018181074824411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02584507203229</v>
+        <v>1.023410339503545</v>
       </c>
       <c r="J7">
-        <v>0.9457727846474918</v>
+        <v>1.017758997852334</v>
       </c>
       <c r="K7">
-        <v>0.9482311389517282</v>
+        <v>1.017883151868847</v>
       </c>
       <c r="L7">
-        <v>0.9514181924653401</v>
+        <v>1.017572655724746</v>
       </c>
       <c r="M7">
-        <v>0.8804215002570925</v>
+        <v>1.020710248514615</v>
       </c>
       <c r="N7">
-        <v>0.9862212990834912</v>
+        <v>1.010028785338179</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8982234299858164</v>
+        <v>1.010353357701123</v>
       </c>
       <c r="D8">
-        <v>0.9142427644260569</v>
+        <v>1.012865059801865</v>
       </c>
       <c r="E8">
-        <v>0.9186935270306473</v>
+        <v>1.012657649270008</v>
       </c>
       <c r="F8">
-        <v>0.8103804610585272</v>
+        <v>1.01407911055771</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.015290454510157</v>
+        <v>1.022999677663768</v>
       </c>
       <c r="J8">
-        <v>0.9232608734303047</v>
+        <v>1.015485911423566</v>
       </c>
       <c r="K8">
-        <v>0.9267249481217711</v>
+        <v>1.015662830774272</v>
       </c>
       <c r="L8">
-        <v>0.9311004163685452</v>
+        <v>1.015456029109697</v>
       </c>
       <c r="M8">
-        <v>0.8249346545451797</v>
+        <v>1.01687332303834</v>
       </c>
       <c r="N8">
-        <v>0.978785857088698</v>
+        <v>1.009278695033773</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8982234299858164</v>
+        <v>1.00534326893047</v>
       </c>
       <c r="D9">
-        <v>0.9142427644260569</v>
+        <v>1.008365747612006</v>
       </c>
       <c r="E9">
-        <v>0.9186935270306473</v>
+        <v>1.008350044004354</v>
       </c>
       <c r="F9">
-        <v>0.8103804610585272</v>
+        <v>1.0064039225024</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015290454510157</v>
+        <v>1.022167916251895</v>
       </c>
       <c r="J9">
-        <v>0.9232608734303047</v>
+        <v>1.011341378698207</v>
       </c>
       <c r="K9">
-        <v>0.9267249481217711</v>
+        <v>1.011621187950972</v>
       </c>
       <c r="L9">
-        <v>0.9311004163685452</v>
+        <v>1.011605538705742</v>
       </c>
       <c r="M9">
-        <v>0.8249346545451797</v>
+        <v>1.009666168704558</v>
       </c>
       <c r="N9">
-        <v>0.978785857088698</v>
+        <v>1.007910545499057</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8982234299858164</v>
+        <v>1.00190221272335</v>
       </c>
       <c r="D10">
-        <v>0.9142427644260569</v>
+        <v>1.005274947225769</v>
       </c>
       <c r="E10">
-        <v>0.9186935270306473</v>
+        <v>1.005393201084254</v>
       </c>
       <c r="F10">
-        <v>0.8103804610585272</v>
+        <v>1.000968143639332</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015290454510157</v>
+        <v>1.021538102858346</v>
       </c>
       <c r="J10">
-        <v>0.9232608734303047</v>
+        <v>1.008478641826419</v>
       </c>
       <c r="K10">
-        <v>0.9267249481217711</v>
+        <v>1.008834038516612</v>
       </c>
       <c r="L10">
-        <v>0.9311004163685452</v>
+        <v>1.008951840831332</v>
       </c>
       <c r="M10">
-        <v>0.8249346545451797</v>
+        <v>1.004543760807116</v>
       </c>
       <c r="N10">
-        <v>0.978785857088698</v>
+        <v>1.006965195779484</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8982234299858164</v>
+        <v>1.000386605875622</v>
       </c>
       <c r="D11">
-        <v>0.9142427644260569</v>
+        <v>1.003913478175164</v>
       </c>
       <c r="E11">
-        <v>0.9186935270306473</v>
+        <v>1.004091285099985</v>
       </c>
       <c r="F11">
-        <v>0.8103804610585272</v>
+        <v>0.9985342220951382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015290454510157</v>
+        <v>1.021246872656698</v>
       </c>
       <c r="J11">
-        <v>0.9232608734303047</v>
+        <v>1.007213888122432</v>
       </c>
       <c r="K11">
-        <v>0.9267249481217711</v>
+        <v>1.007603755121062</v>
       </c>
       <c r="L11">
-        <v>0.9311004163685452</v>
+        <v>1.007780855370962</v>
       </c>
       <c r="M11">
-        <v>0.8249346545451797</v>
+        <v>1.002246010773924</v>
       </c>
       <c r="N11">
-        <v>0.978785857088698</v>
+        <v>1.006547464531345</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8982234299858164</v>
+        <v>0.9998196450449423</v>
       </c>
       <c r="D12">
-        <v>0.9142427644260569</v>
+        <v>1.003404157607465</v>
       </c>
       <c r="E12">
-        <v>0.9186935270306473</v>
+        <v>1.003604325996574</v>
       </c>
       <c r="F12">
-        <v>0.8103804610585272</v>
+        <v>0.9976176903666514</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015290454510157</v>
+        <v>1.021135853606438</v>
       </c>
       <c r="J12">
-        <v>0.9232608734303047</v>
+        <v>1.006740182554333</v>
       </c>
       <c r="K12">
-        <v>0.9267249481217711</v>
+        <v>1.00714312236603</v>
       </c>
       <c r="L12">
-        <v>0.9311004163685452</v>
+        <v>1.007342483561657</v>
       </c>
       <c r="M12">
-        <v>0.8249346545451797</v>
+        <v>1.001380145537709</v>
       </c>
       <c r="N12">
-        <v>0.978785857088698</v>
+        <v>1.006390994567039</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8982234299858164</v>
+        <v>0.9999414434480693</v>
       </c>
       <c r="D13">
-        <v>0.9142427644260569</v>
+        <v>1.003513574235866</v>
       </c>
       <c r="E13">
-        <v>0.9186935270306473</v>
+        <v>1.003708934981477</v>
       </c>
       <c r="F13">
-        <v>0.8103804610585272</v>
+        <v>0.9978148606065974</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015290454510157</v>
+        <v>1.021159797265589</v>
       </c>
       <c r="J13">
-        <v>0.9232608734303047</v>
+        <v>1.006841973700924</v>
       </c>
       <c r="K13">
-        <v>0.9267249481217711</v>
+        <v>1.007242097050123</v>
       </c>
       <c r="L13">
-        <v>0.9311004163685452</v>
+        <v>1.007436672429577</v>
       </c>
       <c r="M13">
-        <v>0.8249346545451797</v>
+        <v>1.0015664434995</v>
       </c>
       <c r="N13">
-        <v>0.978785857088698</v>
+        <v>1.006424617769739</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8982234299858164</v>
+        <v>1.00033982315272</v>
       </c>
       <c r="D14">
-        <v>0.9142427644260569</v>
+        <v>1.003871452038784</v>
       </c>
       <c r="E14">
-        <v>0.9186935270306473</v>
+        <v>1.004051102407932</v>
       </c>
       <c r="F14">
-        <v>0.8103804610585272</v>
+        <v>0.9984587180884922</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015290454510157</v>
+        <v>1.021237754158497</v>
       </c>
       <c r="J14">
-        <v>0.9232608734303047</v>
+        <v>1.007174812264493</v>
       </c>
       <c r="K14">
-        <v>0.9267249481217711</v>
+        <v>1.007565754332918</v>
       </c>
       <c r="L14">
-        <v>0.9311004163685452</v>
+        <v>1.007744689837546</v>
       </c>
       <c r="M14">
-        <v>0.8249346545451797</v>
+        <v>1.002174693029252</v>
       </c>
       <c r="N14">
-        <v>0.978785857088698</v>
+        <v>1.006534557591354</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8982234299858164</v>
+        <v>1.000584743760855</v>
       </c>
       <c r="D15">
-        <v>0.9142427644260569</v>
+        <v>1.004091469777026</v>
       </c>
       <c r="E15">
-        <v>0.9186935270306473</v>
+        <v>1.004261472626118</v>
       </c>
       <c r="F15">
-        <v>0.8103804610585272</v>
+        <v>0.9988537552598573</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015290454510157</v>
+        <v>1.021285407310824</v>
       </c>
       <c r="J15">
-        <v>0.9232608734303047</v>
+        <v>1.007379361400938</v>
       </c>
       <c r="K15">
-        <v>0.9267249481217711</v>
+        <v>1.007764682459115</v>
       </c>
       <c r="L15">
-        <v>0.9311004163685452</v>
+        <v>1.00793401310978</v>
       </c>
       <c r="M15">
-        <v>0.8249346545451797</v>
+        <v>1.002547802844203</v>
       </c>
       <c r="N15">
-        <v>0.978785857088698</v>
+        <v>1.006602120673105</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8982234299858164</v>
+        <v>1.002002246474797</v>
       </c>
       <c r="D16">
-        <v>0.9142427644260569</v>
+        <v>1.005364804745336</v>
       </c>
       <c r="E16">
-        <v>0.9186935270306473</v>
+        <v>1.005479139573341</v>
       </c>
       <c r="F16">
-        <v>0.8103804610585272</v>
+        <v>1.001127950495047</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015290454510157</v>
+        <v>1.021557035599969</v>
       </c>
       <c r="J16">
-        <v>0.9232608734303047</v>
+        <v>1.008562037466439</v>
       </c>
       <c r="K16">
-        <v>0.9267249481217711</v>
+        <v>1.008915183775168</v>
       </c>
       <c r="L16">
-        <v>0.9311004163685452</v>
+        <v>1.009029083203597</v>
       </c>
       <c r="M16">
-        <v>0.8249346545451797</v>
+        <v>1.004694541716283</v>
       </c>
       <c r="N16">
-        <v>0.978785857088698</v>
+        <v>1.006992738655009</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8982234299858164</v>
+        <v>1.00288444993581</v>
       </c>
       <c r="D17">
-        <v>0.9142427644260569</v>
+        <v>1.006157248349109</v>
       </c>
       <c r="E17">
-        <v>0.9186935270306473</v>
+        <v>1.006237084287436</v>
       </c>
       <c r="F17">
-        <v>0.8103804610585272</v>
+        <v>1.002532737790811</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015290454510157</v>
+        <v>1.021722421616234</v>
       </c>
       <c r="J17">
-        <v>0.9232608734303047</v>
+        <v>1.009297065412918</v>
       </c>
       <c r="K17">
-        <v>0.9267249481217711</v>
+        <v>1.009630500465048</v>
       </c>
       <c r="L17">
-        <v>0.9311004163685452</v>
+        <v>1.009710039653924</v>
       </c>
       <c r="M17">
-        <v>0.8249346545451797</v>
+        <v>1.006019517289061</v>
       </c>
       <c r="N17">
-        <v>0.978785857088698</v>
+        <v>1.007235485784476</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8982234299858164</v>
+        <v>1.003396564214085</v>
       </c>
       <c r="D18">
-        <v>0.9142427644260569</v>
+        <v>1.006617244951328</v>
       </c>
       <c r="E18">
-        <v>0.9186935270306473</v>
+        <v>1.006677107110459</v>
       </c>
       <c r="F18">
-        <v>0.8103804610585272</v>
+        <v>1.003344418621572</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.015290454510157</v>
+        <v>1.021817106266763</v>
       </c>
       <c r="J18">
-        <v>0.9232608734303047</v>
+        <v>1.009723376068102</v>
       </c>
       <c r="K18">
-        <v>0.9267249481217711</v>
+        <v>1.010045481269636</v>
       </c>
       <c r="L18">
-        <v>0.9311004163685452</v>
+        <v>1.010105124094414</v>
       </c>
       <c r="M18">
-        <v>0.8249346545451797</v>
+        <v>1.006784690588043</v>
       </c>
       <c r="N18">
-        <v>0.978785857088698</v>
+        <v>1.007376269940988</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8982234299858164</v>
+        <v>1.003570769074498</v>
       </c>
       <c r="D19">
-        <v>0.9142427644260569</v>
+        <v>1.006773718917535</v>
       </c>
       <c r="E19">
-        <v>0.9186935270306473</v>
+        <v>1.006826795541212</v>
       </c>
       <c r="F19">
-        <v>0.8103804610585272</v>
+        <v>1.003619885611547</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.015290454510157</v>
+        <v>1.021849090772828</v>
       </c>
       <c r="J19">
-        <v>0.9232608734303047</v>
+        <v>1.009868330782798</v>
       </c>
       <c r="K19">
-        <v>0.9267249481217711</v>
+        <v>1.010186600970846</v>
       </c>
       <c r="L19">
-        <v>0.9311004163685452</v>
+        <v>1.010239484080194</v>
       </c>
       <c r="M19">
-        <v>0.8249346545451797</v>
+        <v>1.007044306974031</v>
       </c>
       <c r="N19">
-        <v>0.978785857088698</v>
+        <v>1.007424138305098</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8982234299858164</v>
+        <v>1.002790053364204</v>
       </c>
       <c r="D20">
-        <v>0.9142427644260569</v>
+        <v>1.006072457466614</v>
       </c>
       <c r="E20">
-        <v>0.9186935270306473</v>
+        <v>1.006155979356948</v>
       </c>
       <c r="F20">
-        <v>0.8103804610585272</v>
+        <v>1.002382817586765</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015290454510157</v>
+        <v>1.02170486203233</v>
       </c>
       <c r="J20">
-        <v>0.9232608734303047</v>
+        <v>1.009218455020426</v>
       </c>
       <c r="K20">
-        <v>0.9267249481217711</v>
+        <v>1.009553987537017</v>
       </c>
       <c r="L20">
-        <v>0.9311004163685452</v>
+        <v>1.009637198162005</v>
       </c>
       <c r="M20">
-        <v>0.8249346545451797</v>
+        <v>1.005878155341803</v>
       </c>
       <c r="N20">
-        <v>0.978785857088698</v>
+        <v>1.007209525018429</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8982234299858164</v>
+        <v>1.000222621845341</v>
       </c>
       <c r="D21">
-        <v>0.9142427644260569</v>
+        <v>1.003766166736096</v>
       </c>
       <c r="E21">
-        <v>0.9186935270306473</v>
+        <v>1.003950436704099</v>
       </c>
       <c r="F21">
-        <v>0.8103804610585272</v>
+        <v>0.9982694656924104</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015290454510157</v>
+        <v>1.021214876798272</v>
       </c>
       <c r="J21">
-        <v>0.9232608734303047</v>
+        <v>1.007076908962195</v>
       </c>
       <c r="K21">
-        <v>0.9267249481217711</v>
+        <v>1.007470547200005</v>
       </c>
       <c r="L21">
-        <v>0.9311004163685452</v>
+        <v>1.007654081704021</v>
       </c>
       <c r="M21">
-        <v>0.8249346545451797</v>
+        <v>1.001995923786297</v>
       </c>
       <c r="N21">
-        <v>0.978785857088698</v>
+        <v>1.006502219487144</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8982234299858164</v>
+        <v>0.9985851694371848</v>
       </c>
       <c r="D22">
-        <v>0.9142427644260569</v>
+        <v>1.002295148733026</v>
       </c>
       <c r="E22">
-        <v>0.9186935270306473</v>
+        <v>1.002544160657078</v>
       </c>
       <c r="F22">
-        <v>0.8103804610585272</v>
+        <v>0.9956108923234179</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015290454510157</v>
+        <v>1.020890319988964</v>
       </c>
       <c r="J22">
-        <v>0.9232608734303047</v>
+        <v>1.005707680584361</v>
       </c>
       <c r="K22">
-        <v>0.9267249481217711</v>
+        <v>1.006139412696714</v>
       </c>
       <c r="L22">
-        <v>0.9311004163685452</v>
+        <v>1.006387388995422</v>
       </c>
       <c r="M22">
-        <v>0.8249346545451797</v>
+        <v>0.9994831720325584</v>
       </c>
       <c r="N22">
-        <v>0.978785857088698</v>
+        <v>1.006049927652064</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8982234299858164</v>
+        <v>0.9994554661352381</v>
       </c>
       <c r="D23">
-        <v>0.9142427644260569</v>
+        <v>1.003076997452071</v>
       </c>
       <c r="E23">
-        <v>0.9186935270306473</v>
+        <v>1.003291553100484</v>
       </c>
       <c r="F23">
-        <v>0.8103804610585272</v>
+        <v>0.9970272567167358</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015290454510157</v>
+        <v>1.021063957864067</v>
       </c>
       <c r="J23">
-        <v>0.9232608734303047</v>
+        <v>1.006435739728085</v>
       </c>
       <c r="K23">
-        <v>0.9267249481217711</v>
+        <v>1.006847126986863</v>
       </c>
       <c r="L23">
-        <v>0.9311004163685452</v>
+        <v>1.007060809416413</v>
       </c>
       <c r="M23">
-        <v>0.8249346545451797</v>
+        <v>1.000822180609289</v>
       </c>
       <c r="N23">
-        <v>0.978785857088698</v>
+        <v>1.006290430709881</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8982234299858164</v>
+        <v>1.002832714703802</v>
       </c>
       <c r="D24">
-        <v>0.9142427644260569</v>
+        <v>1.006110777675127</v>
       </c>
       <c r="E24">
-        <v>0.9186935270306473</v>
+        <v>1.006192633583025</v>
       </c>
       <c r="F24">
-        <v>0.8103804610585272</v>
+        <v>1.002450583863288</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015290454510157</v>
+        <v>1.021712801955561</v>
       </c>
       <c r="J24">
-        <v>0.9232608734303047</v>
+        <v>1.009253983138036</v>
       </c>
       <c r="K24">
-        <v>0.9267249481217711</v>
+        <v>1.00958856738398</v>
       </c>
       <c r="L24">
-        <v>0.9311004163685452</v>
+        <v>1.009670118596299</v>
       </c>
       <c r="M24">
-        <v>0.8249346545451797</v>
+        <v>1.005942054371467</v>
       </c>
       <c r="N24">
-        <v>0.978785857088698</v>
+        <v>1.007221258059185</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8982234299858164</v>
+        <v>1.006655775098321</v>
       </c>
       <c r="D25">
-        <v>0.9142427644260569</v>
+        <v>1.00954454195793</v>
       </c>
       <c r="E25">
-        <v>0.9186935270306473</v>
+        <v>1.009478221313042</v>
       </c>
       <c r="F25">
-        <v>0.8103804610585272</v>
+        <v>1.008442932397345</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.015290454510157</v>
+        <v>1.022396014383149</v>
       </c>
       <c r="J25">
-        <v>0.9232608734303047</v>
+        <v>1.01242993445376</v>
       </c>
       <c r="K25">
-        <v>0.9267249481217711</v>
+        <v>1.012681937196564</v>
       </c>
       <c r="L25">
-        <v>0.9311004163685452</v>
+        <v>1.012615837051912</v>
       </c>
       <c r="M25">
-        <v>0.8249346545451797</v>
+        <v>1.01158399435038</v>
       </c>
       <c r="N25">
-        <v>0.978785857088698</v>
+        <v>1.008269946482041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009632597429711</v>
+        <v>0.8895974143076429</v>
       </c>
       <c r="D2">
-        <v>1.01221784508477</v>
+        <v>0.9065611859355759</v>
       </c>
       <c r="E2">
-        <v>1.012037756324119</v>
+        <v>0.9114327558537588</v>
       </c>
       <c r="F2">
-        <v>1.012993391380036</v>
+        <v>0.7895573988058201</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022886706003748</v>
+        <v>1.011520885343622</v>
       </c>
       <c r="J2">
-        <v>1.014891502240957</v>
+        <v>0.9156687832966383</v>
       </c>
       <c r="K2">
-        <v>1.015082666885817</v>
+        <v>0.9194964201293062</v>
       </c>
       <c r="L2">
-        <v>1.014903120519523</v>
+        <v>0.9242813475147241</v>
       </c>
       <c r="M2">
-        <v>1.015855879778966</v>
+        <v>0.805009822251136</v>
       </c>
       <c r="N2">
-        <v>1.009082513329069</v>
+        <v>0.9762803419112029</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011754289497215</v>
+        <v>0.9124024182128181</v>
       </c>
       <c r="D3">
-        <v>1.014122975376818</v>
+        <v>0.9268401862961123</v>
       </c>
       <c r="E3">
-        <v>1.013862720549221</v>
+        <v>0.9306177562453791</v>
       </c>
       <c r="F3">
-        <v>1.016170763194075</v>
+        <v>0.8428372680465001</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02321240895198</v>
+        <v>1.021191480150544</v>
       </c>
       <c r="J3">
-        <v>1.016639393899762</v>
+        <v>0.9356036513550519</v>
       </c>
       <c r="K3">
-        <v>1.016789190687002</v>
+        <v>0.9385034421181649</v>
       </c>
       <c r="L3">
-        <v>1.016529661135266</v>
+        <v>0.942222750370603</v>
       </c>
       <c r="M3">
-        <v>1.018831285797483</v>
+        <v>0.8559734445811075</v>
       </c>
       <c r="N3">
-        <v>1.00965935640418</v>
+        <v>0.9828615648559141</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013109463599595</v>
+        <v>0.924154731504633</v>
       </c>
       <c r="D4">
-        <v>1.015339716699707</v>
+        <v>0.9372608298325352</v>
       </c>
       <c r="E4">
-        <v>1.015028681094754</v>
+        <v>0.9404963683820697</v>
       </c>
       <c r="F4">
-        <v>1.018169970584031</v>
+        <v>0.8682975316684616</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023409264783684</v>
+        <v>1.02582135151431</v>
       </c>
       <c r="J4">
-        <v>1.017752782565885</v>
+        <v>0.9457198792073361</v>
       </c>
       <c r="K4">
-        <v>1.017877077018535</v>
+        <v>0.9481804768430123</v>
       </c>
       <c r="L4">
-        <v>1.017566863211157</v>
+        <v>0.9513702805191429</v>
       </c>
       <c r="M4">
-        <v>1.020699877916072</v>
+        <v>0.8802967528481848</v>
       </c>
       <c r="N4">
-        <v>1.010026734664452</v>
+        <v>0.9862038164440499</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013675036165484</v>
+        <v>0.9286663841095508</v>
       </c>
       <c r="D5">
-        <v>1.015847488571206</v>
+        <v>0.9412573745214244</v>
       </c>
       <c r="E5">
-        <v>1.01551536106557</v>
+        <v>0.9442884429239008</v>
       </c>
       <c r="F5">
-        <v>1.018997101733472</v>
+        <v>0.8777607451886529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023488730699065</v>
+        <v>1.027537611398804</v>
       </c>
       <c r="J5">
-        <v>1.018216721212888</v>
+        <v>0.9495781798216576</v>
       </c>
       <c r="K5">
-        <v>1.018330592914295</v>
+        <v>0.9518766214786578</v>
       </c>
       <c r="L5">
-        <v>1.017999322807996</v>
+        <v>0.9548663731678786</v>
       </c>
       <c r="M5">
-        <v>1.021472105200651</v>
+        <v>0.8893297654193009</v>
       </c>
       <c r="N5">
-        <v>1.010179802130534</v>
+        <v>0.9874788769950451</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013769758041059</v>
+        <v>0.9294031546625112</v>
       </c>
       <c r="D6">
-        <v>1.015932528425117</v>
+        <v>0.941909848327491</v>
       </c>
       <c r="E6">
-        <v>1.015596874385632</v>
+        <v>0.9449077114851263</v>
       </c>
       <c r="F6">
-        <v>1.019135205769795</v>
+        <v>0.8792905825228793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023501881262126</v>
+        <v>1.027814675146273</v>
       </c>
       <c r="J6">
-        <v>1.01829437880677</v>
+        <v>0.9502069711711126</v>
       </c>
       <c r="K6">
-        <v>1.018406517856745</v>
+        <v>0.9524792635168875</v>
       </c>
       <c r="L6">
-        <v>1.018071726909556</v>
+        <v>0.9554365107391124</v>
       </c>
       <c r="M6">
-        <v>1.021600990750387</v>
+        <v>0.890789601708211</v>
       </c>
       <c r="N6">
-        <v>1.010205422811736</v>
+        <v>0.9876866900645437</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013117036962089</v>
+        <v>0.9242164880115912</v>
       </c>
       <c r="D7">
-        <v>1.015346516181553</v>
+        <v>0.9373155485993413</v>
       </c>
       <c r="E7">
-        <v>1.015035197744933</v>
+        <v>0.9405482750388269</v>
       </c>
       <c r="F7">
-        <v>1.018181074824411</v>
+        <v>0.86842818733711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023410339503545</v>
+        <v>1.02584507203229</v>
       </c>
       <c r="J7">
-        <v>1.017758997852334</v>
+        <v>0.9457727846474928</v>
       </c>
       <c r="K7">
-        <v>1.017883151868847</v>
+        <v>0.9482311389517291</v>
       </c>
       <c r="L7">
-        <v>1.017572655724746</v>
+        <v>0.9514181924653411</v>
       </c>
       <c r="M7">
-        <v>1.020710248514615</v>
+        <v>0.8804215002570925</v>
       </c>
       <c r="N7">
-        <v>1.010028785338179</v>
+        <v>0.9862212990834914</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010353357701123</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D8">
-        <v>1.012865059801865</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E8">
-        <v>1.012657649270008</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F8">
-        <v>1.01407911055771</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.022999677663768</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J8">
-        <v>1.015485911423566</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K8">
-        <v>1.015662830774272</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L8">
-        <v>1.015456029109697</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M8">
-        <v>1.01687332303834</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N8">
-        <v>1.009278695033773</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00534326893047</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D9">
-        <v>1.008365747612006</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E9">
-        <v>1.008350044004354</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F9">
-        <v>1.0064039225024</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022167916251895</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J9">
-        <v>1.011341378698207</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K9">
-        <v>1.011621187950972</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L9">
-        <v>1.011605538705742</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M9">
-        <v>1.009666168704558</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N9">
-        <v>1.007910545499057</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00190221272335</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D10">
-        <v>1.005274947225769</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E10">
-        <v>1.005393201084254</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F10">
-        <v>1.000968143639332</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021538102858346</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J10">
-        <v>1.008478641826419</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K10">
-        <v>1.008834038516612</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L10">
-        <v>1.008951840831332</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M10">
-        <v>1.004543760807116</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N10">
-        <v>1.006965195779484</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000386605875622</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D11">
-        <v>1.003913478175164</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E11">
-        <v>1.004091285099985</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F11">
-        <v>0.9985342220951382</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021246872656698</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J11">
-        <v>1.007213888122432</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K11">
-        <v>1.007603755121062</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L11">
-        <v>1.007780855370962</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M11">
-        <v>1.002246010773924</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N11">
-        <v>1.006547464531345</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9998196450449423</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D12">
-        <v>1.003404157607465</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E12">
-        <v>1.003604325996574</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F12">
-        <v>0.9976176903666514</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021135853606438</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J12">
-        <v>1.006740182554333</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K12">
-        <v>1.00714312236603</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L12">
-        <v>1.007342483561657</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M12">
-        <v>1.001380145537709</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N12">
-        <v>1.006390994567039</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9999414434480693</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D13">
-        <v>1.003513574235866</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E13">
-        <v>1.003708934981477</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F13">
-        <v>0.9978148606065974</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021159797265589</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J13">
-        <v>1.006841973700924</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K13">
-        <v>1.007242097050123</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L13">
-        <v>1.007436672429577</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M13">
-        <v>1.0015664434995</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N13">
-        <v>1.006424617769739</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00033982315272</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D14">
-        <v>1.003871452038784</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E14">
-        <v>1.004051102407932</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F14">
-        <v>0.9984587180884922</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021237754158497</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J14">
-        <v>1.007174812264493</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K14">
-        <v>1.007565754332918</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L14">
-        <v>1.007744689837546</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M14">
-        <v>1.002174693029252</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N14">
-        <v>1.006534557591354</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000584743760855</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D15">
-        <v>1.004091469777026</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E15">
-        <v>1.004261472626118</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F15">
-        <v>0.9988537552598573</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021285407310824</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J15">
-        <v>1.007379361400938</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K15">
-        <v>1.007764682459115</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L15">
-        <v>1.00793401310978</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M15">
-        <v>1.002547802844203</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N15">
-        <v>1.006602120673105</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002002246474797</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D16">
-        <v>1.005364804745336</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E16">
-        <v>1.005479139573341</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F16">
-        <v>1.001127950495047</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021557035599969</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J16">
-        <v>1.008562037466439</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K16">
-        <v>1.008915183775168</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L16">
-        <v>1.009029083203597</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M16">
-        <v>1.004694541716283</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N16">
-        <v>1.006992738655009</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00288444993581</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D17">
-        <v>1.006157248349109</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E17">
-        <v>1.006237084287436</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F17">
-        <v>1.002532737790811</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021722421616234</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J17">
-        <v>1.009297065412918</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K17">
-        <v>1.009630500465048</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L17">
-        <v>1.009710039653924</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M17">
-        <v>1.006019517289061</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N17">
-        <v>1.007235485784476</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003396564214085</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D18">
-        <v>1.006617244951328</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E18">
-        <v>1.006677107110459</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F18">
-        <v>1.003344418621572</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021817106266763</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J18">
-        <v>1.009723376068102</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K18">
-        <v>1.010045481269636</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L18">
-        <v>1.010105124094414</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M18">
-        <v>1.006784690588043</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N18">
-        <v>1.007376269940988</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003570769074498</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D19">
-        <v>1.006773718917535</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E19">
-        <v>1.006826795541212</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F19">
-        <v>1.003619885611547</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021849090772828</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J19">
-        <v>1.009868330782798</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K19">
-        <v>1.010186600970846</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L19">
-        <v>1.010239484080194</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M19">
-        <v>1.007044306974031</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N19">
-        <v>1.007424138305098</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002790053364204</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D20">
-        <v>1.006072457466614</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E20">
-        <v>1.006155979356948</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F20">
-        <v>1.002382817586765</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02170486203233</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J20">
-        <v>1.009218455020426</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K20">
-        <v>1.009553987537017</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L20">
-        <v>1.009637198162005</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M20">
-        <v>1.005878155341803</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N20">
-        <v>1.007209525018429</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000222621845341</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D21">
-        <v>1.003766166736096</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E21">
-        <v>1.003950436704099</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F21">
-        <v>0.9982694656924104</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021214876798272</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J21">
-        <v>1.007076908962195</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K21">
-        <v>1.007470547200005</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L21">
-        <v>1.007654081704021</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M21">
-        <v>1.001995923786297</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N21">
-        <v>1.006502219487144</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9985851694371848</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D22">
-        <v>1.002295148733026</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E22">
-        <v>1.002544160657078</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F22">
-        <v>0.9956108923234179</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020890319988964</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J22">
-        <v>1.005707680584361</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K22">
-        <v>1.006139412696714</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L22">
-        <v>1.006387388995422</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M22">
-        <v>0.9994831720325584</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N22">
-        <v>1.006049927652064</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9994554661352381</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D23">
-        <v>1.003076997452071</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E23">
-        <v>1.003291553100484</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F23">
-        <v>0.9970272567167358</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021063957864067</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J23">
-        <v>1.006435739728085</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K23">
-        <v>1.006847126986863</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L23">
-        <v>1.007060809416413</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M23">
-        <v>1.000822180609289</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N23">
-        <v>1.006290430709881</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002832714703802</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D24">
-        <v>1.006110777675127</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E24">
-        <v>1.006192633583025</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F24">
-        <v>1.002450583863288</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021712801955561</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J24">
-        <v>1.009253983138036</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K24">
-        <v>1.00958856738398</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L24">
-        <v>1.009670118596299</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M24">
-        <v>1.005942054371467</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N24">
-        <v>1.007221258059185</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006655775098321</v>
+        <v>0.8982234299858178</v>
       </c>
       <c r="D25">
-        <v>1.00954454195793</v>
+        <v>0.9142427644260582</v>
       </c>
       <c r="E25">
-        <v>1.009478221313042</v>
+        <v>0.9186935270306487</v>
       </c>
       <c r="F25">
-        <v>1.008442932397345</v>
+        <v>0.8103804610585286</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022396014383149</v>
+        <v>1.015290454510158</v>
       </c>
       <c r="J25">
-        <v>1.01242993445376</v>
+        <v>0.9232608734303062</v>
       </c>
       <c r="K25">
-        <v>1.012681937196564</v>
+        <v>0.9267249481217725</v>
       </c>
       <c r="L25">
-        <v>1.012615837051912</v>
+        <v>0.9311004163685466</v>
       </c>
       <c r="M25">
-        <v>1.01158399435038</v>
+        <v>0.824934654545181</v>
       </c>
       <c r="N25">
-        <v>1.008269946482041</v>
+        <v>0.9787858570886986</v>
       </c>
     </row>
   </sheetData>
